--- a/Documents/DIYANA/DIGESTION/MUKA DEPAN OREN/Muka depan Digest Oren Pil 270824.xlsx
+++ b/Documents/DIYANA/DIGESTION/MUKA DEPAN OREN/Muka depan Digest Oren Pil 270824.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Documents\DIYANA\DIGESTION\MUKA DEPAN OREN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7648DC10-605D-4710-B575-957FED5E18B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DF3861-5B8C-49A3-AC18-CD04CEC3BBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24D087FB-E197-4E74-8D17-1CFCDDC43342}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Tarikh:</t>
   </si>
@@ -93,13 +93,7 @@
     <t xml:space="preserve">   IQC PIL 270824</t>
   </si>
   <si>
-    <t>1) 2024070247 AR,AS.HG</t>
-  </si>
-  <si>
-    <t>2) 2024070247 BR,AS.HG</t>
-  </si>
-  <si>
-    <t>3) 2024070247 CR,AS.HG</t>
+    <t xml:space="preserve">1) 2024070247 </t>
   </si>
 </sst>
 </file>
@@ -236,6 +230,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,18 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -313,67 +307,6 @@
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Right Brace 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F509285-86F6-433B-9E66-034399E0730B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2144856" y="3351068"/>
-          <a:ext cx="123825" cy="539461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 51081"/>
-          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -704,7 +637,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +657,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="9">
         <v>45531</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,11 +692,11 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="F9" t="s">
         <v>7</v>
       </c>
@@ -799,11 +732,11 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
@@ -826,165 +759,161 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="14" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="15"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="14" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -998,6 +927,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
@@ -1014,35 +972,6 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
